--- a/biology/Biochimie/Chymotrypsine_C/Chymotrypsine_C.xlsx
+++ b/biology/Biochimie/Chymotrypsine_C/Chymotrypsine_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chymotrypsine C (EC 3.4.21.2) est une protéase à sérine, c'est-à-dire une endopeptidase dont la triade catalytique contient un résidu de sérine, qui catalyse l'hydrolyse des liaisons peptidiques du côté carboxyle de résidus de leucine, de tyrosine, de phénylalanine, de méthionine, de tryptophane, de glutamine ou d'asparagine. Chez l'homme, elle est codée par le gène CTRC, situé sur le chromosome 1.
@@ -513,7 +525,9 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chymotrypsine C de l'être humain comprend 268 acides aminés :
         10          20          30          40          50          60
